--- a/data_bom.xlsx
+++ b/data_bom.xlsx
@@ -578,7 +578,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6512</v>
+        <v>6550</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -587,7 +587,7 @@
         <v>36</v>
       </c>
       <c r="D2" t="n">
-        <v>21221</v>
+        <v>15903</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6512</v>
+        <v>6550</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -697,7 +697,7 @@
         <v>36</v>
       </c>
       <c r="D3" t="n">
-        <v>21222</v>
+        <v>15907</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6512</v>
+        <v>6550</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -807,7 +807,7 @@
         <v>36</v>
       </c>
       <c r="D4" t="n">
-        <v>21223</v>
+        <v>15881</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6512</v>
+        <v>6550</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -917,7 +917,7 @@
         <v>36</v>
       </c>
       <c r="D5" t="n">
-        <v>21224</v>
+        <v>15883</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6512</v>
+        <v>6550</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -1027,7 +1027,7 @@
         <v>36</v>
       </c>
       <c r="D6" t="n">
-        <v>21225</v>
+        <v>17476</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6512</v>
+        <v>6550</v>
       </c>
       <c r="B7" t="n">
         <v>6</v>
@@ -1137,7 +1137,7 @@
         <v>36</v>
       </c>
       <c r="D7" t="n">
-        <v>21226</v>
+        <v>15887</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1238,7 +1238,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6512</v>
+        <v>6550</v>
       </c>
       <c r="B8" t="n">
         <v>7</v>
@@ -1247,7 +1247,7 @@
         <v>36</v>
       </c>
       <c r="D8" t="n">
-        <v>21227</v>
+        <v>17474</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6512</v>
+        <v>6550</v>
       </c>
       <c r="B9" t="n">
         <v>8</v>
@@ -1357,7 +1357,7 @@
         <v>36</v>
       </c>
       <c r="D9" t="n">
-        <v>21228</v>
+        <v>17475</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1458,7 +1458,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6512</v>
+        <v>6550</v>
       </c>
       <c r="B10" t="n">
         <v>9</v>
@@ -1467,7 +1467,7 @@
         <v>36</v>
       </c>
       <c r="D10" t="n">
-        <v>21229</v>
+        <v>3356</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1563,6 +1563,226 @@
         <v>0</v>
       </c>
       <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>6550</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="n">
+        <v>17665</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>66</v>
+      </c>
+      <c r="G11" t="n">
+        <v>371</v>
+      </c>
+      <c r="H11" t="n">
+        <v>385</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" t="n">
+        <v>100</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>39</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="s">
+        <v>39</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1059</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>6550</v>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="n">
+        <v>15896</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>66</v>
+      </c>
+      <c r="G12" t="n">
+        <v>371</v>
+      </c>
+      <c r="H12" t="n">
+        <v>385</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" t="n">
+        <v>100</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O12" t="s">
+        <v>39</v>
+      </c>
+      <c r="P12" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>39</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="s">
+        <v>39</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1059</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>0</v>
       </c>
     </row>
